--- a/Door.xlsx
+++ b/Door.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Rohit</t>
   </si>
 </sst>
 </file>
@@ -364,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,6 +390,17 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Door.xlsx
+++ b/Door.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Rohit</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -401,6 +410,18 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>9404465266</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Door.xlsx
+++ b/Door.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>12th</t>
   </si>
 </sst>
 </file>
@@ -379,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -424,6 +430,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>8237800125</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Door.xlsx
+++ b/Door.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Door.xlsx
+++ b/Door.xlsx
@@ -14,38 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age </t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Rohit</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Aryan</t>
-  </si>
-  <si>
-    <t>12th</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,69 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>9404465266</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>8237800125</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>